--- a/TRenesas_MCU_35H/findchip_stock.xlsx
+++ b/TRenesas_MCU_35H/findchip_stock.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
@@ -5105,6 +5105,6392 @@
         </is>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#BA0</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#BA0</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Verical</t>
+        </is>
+      </c>
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://www.verical.com/pd/murata-manufacturing-ceramic---multilayer-R7FS5D97E3A01CFB#BA0?utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>120</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#BA0</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#BA0</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Chip1Stop</t>
+        </is>
+      </c>
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://www.chip1stop.com/product/detail?partId=MURA-0093105&amp;utm_term=R7FS5D97E3A01CFB#BA0&amp;cid=MURA-0093105</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>120</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#BA0</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Avnet Asia</t>
+        </is>
+      </c>
+      <c r="D147" t="b">
+        <v>1</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#BA0</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>element14 Asia-Pacific</t>
+        </is>
+      </c>
+      <c r="D148" t="b">
+        <v>1</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#BA0</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D149" t="b">
+        <v>1</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R7FS5D97E3A01CFB#BA0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>257</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#BA0</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="D150" t="b">
+        <v>1</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>33</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>R7FS5D97E3A01CFB#BA0</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D151" t="b">
+        <v>1</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>R5F11Y67DSM#50</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D152" t="b">
+        <v>1</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>R5F11Y67DSM#50</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D153" t="b">
+        <v>1</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>R5F11Y67DSM#50</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D154" t="b">
+        <v>1</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F11Y67DSM#50?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>R5F11Y67DSM#50</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D155" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>R5F564MFGGFP#V1</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D156" t="b">
+        <v>1</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>R5F564MFGGFP#V1</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D157" t="b">
+        <v>1</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>R5F564MFGGFP#V1</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F564MFGGFP#V1?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>R5F564MFGGFP#V1</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D159" t="b">
+        <v>1</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>R5F109LBCJFB#10</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>R5F109LBCJFB#10</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D161" t="b">
+        <v>1</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F109LBCJFB#10?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>R5F104MFGFA#30</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D162" t="b">
+        <v>1</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>264</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>R5F104MFGFA#30</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D163" t="b">
+        <v>1</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>R5F104MFGFA#30</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D164" t="b">
+        <v>1</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F104MFGFA#30?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>R5F104MFGFA#30</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D165" t="b">
+        <v>1</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>R7FA6M2AF3CLK#AC0</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D166" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>R7FA6M2AF3CLK#AC0</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D167" t="b">
+        <v>1</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>R7FA6M2AF3CLK#AC0</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D168" t="b">
+        <v>1</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R7FA6M2AF3CLK#AC0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>R7FA6M2AF3CLK#AC0</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D169" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>R5F100MGGFB#30</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D170" t="b">
+        <v>1</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>R5F100MGGFB#30</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D171" t="b">
+        <v>1</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>R5F100MGGFB#30</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D172" t="b">
+        <v>1</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F100MGGFB#30?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>R5F100MGGFB#30</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D173" t="b">
+        <v>1</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>R7S921045VCBG#AC0</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D174" t="b">
+        <v>1</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>R7S921045VCBG#AC0</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>element14 Asia-Pacific</t>
+        </is>
+      </c>
+      <c r="D175" t="b">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>R7S921045VCBG#AC0</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D176" t="b">
+        <v>1</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R7S921045VCBG#AC0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>R7S921045VCBG#AC0</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D177" t="b">
+        <v>1</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#30</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D178" t="b">
+        <v>1</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>20</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#30</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D179" t="b">
+        <v>1</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#30</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D180" t="b">
+        <v>1</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F104LJGFB#30?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#30</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Rochester Electronics China</t>
+        </is>
+      </c>
+      <c r="D181" t="b">
+        <v>1</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>R5F104LJGFB#30</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D182" t="b">
+        <v>1</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>R5F11CCCMBG#U0</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Chip1Stop</t>
+        </is>
+      </c>
+      <c r="D183" t="b">
+        <v>1</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://www.chip1stop.com/product/detail?partId=MURA-0093105&amp;utm_term=R5F11CCCMBG#U0&amp;cid=MURA-0093105</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>354</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>R5F11CCCMBG#U0</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D184" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>R5F11CCCMBG#U0</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D185" t="b">
+        <v>1</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>R5F11CCCMBG#U0</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Verical</t>
+        </is>
+      </c>
+      <c r="D186" t="b">
+        <v>1</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://www.verical.com/pd/murata-manufacturing-ceramic---multilayer-R5F11CCCMBG#U0?utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>354</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>R5F11CCCMBG#U0</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D187" t="b">
+        <v>1</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F11CCCMBG#U0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>R5F11CCCMBG#U0</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D188" t="b">
+        <v>1</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#30</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D189" t="b">
+        <v>1</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#30</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D190" t="b">
+        <v>1</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#30</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>element14 Asia-Pacific</t>
+        </is>
+      </c>
+      <c r="D191" t="b">
+        <v>1</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#30</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D192" t="b">
+        <v>1</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F100GEGFB#30?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>R5F100GEGFB#30</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D193" t="b">
+        <v>1</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>R5F565N9BDFP#30</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D194" t="b">
+        <v>1</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>R5F565N9BDFP#30</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D195" t="b">
+        <v>1</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>R5F565N9BDFP#30</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D196" t="b">
+        <v>1</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F565N9BDFP#30?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>R5F565N9BDFP#30</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D197" t="b">
+        <v>1</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>R5F5631NDDFM#V0</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D198" t="b">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>R5F5631NDDFM#V0</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D199" t="b">
+        <v>1</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>R5F5631NDDFM#V0</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D200" t="b">
+        <v>1</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F5631NDDFM#V0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>R5F5631NDDFM#V0</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D201" t="b">
+        <v>1</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>R5F5630BCDFC#V0</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D202" t="b">
+        <v>1</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>R5F5630BCDFC#V0</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D203" t="b">
+        <v>1</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>R5F5630BCDFC#V0</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D204" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F5630BCDFC#V0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>R5F5630BCDFC#V0</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D205" t="b">
+        <v>1</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>1506</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>R5F11Y68DSM#10</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D206" t="b">
+        <v>1</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>R5F11Y68DSM#10</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D207" t="b">
+        <v>1</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>R5F11Y68DSM#10</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D208" t="b">
+        <v>1</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F11Y68DSM#10?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>R5F11Y68DSM#10</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D209" t="b">
+        <v>1</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>R5F10BMGYFB#H5</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D210" t="b">
+        <v>0</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>R5F10DPFCJFB#56G</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D211" t="b">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>R5F10DPFCJFB#56G</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D212" t="b">
+        <v>1</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>R5F10DPFCJFB#56G</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D213" t="b">
+        <v>1</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F10DPFCJFB#56G?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>R5F51117ADNE#0A</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D214" t="b">
+        <v>1</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>R5F51117ADNE#0A</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D215" t="b">
+        <v>1</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>R5F51117ADNE#0A</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D216" t="b">
+        <v>1</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F51117ADNE#0A?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>R5F51117ADNE#0A</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D217" t="b">
+        <v>1</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>R5F571MJCDFC#10</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D218" t="b">
+        <v>1</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>R5F571MJCDFC#10</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D219" t="b">
+        <v>1</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>R5F571MJCDFC#10</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D220" t="b">
+        <v>1</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F571MJCDFC#10?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>R5F571MJCDFC#10</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D221" t="b">
+        <v>1</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#30</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D222" t="b">
+        <v>1</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>125</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#30</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D223" t="b">
+        <v>1</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#30</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D224" t="b">
+        <v>1</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F104GHGFB#30?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>R5F104GHGFB#30</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D225" t="b">
+        <v>1</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#V0</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D226" t="b">
+        <v>1</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#V0</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D227" t="b">
+        <v>1</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#V0</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Verical</t>
+        </is>
+      </c>
+      <c r="D228" t="b">
+        <v>1</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>https://www.verical.com/pd/murata-manufacturing-ceramic---multilayer-R5F104MFAFB#V0?utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>47</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#V0</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Chip1Stop</t>
+        </is>
+      </c>
+      <c r="D229" t="b">
+        <v>1</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>https://www.chip1stop.com/product/detail?partId=MURA-0093105&amp;utm_term=R5F104MFAFB#V0&amp;cid=MURA-0093105</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>47</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#V0</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>element14 Asia-Pacific</t>
+        </is>
+      </c>
+      <c r="D230" t="b">
+        <v>1</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#V0</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D231" t="b">
+        <v>1</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F104MFAFB#V0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>R5F104MFAFB#V0</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D232" t="b">
+        <v>1</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>R5F10PGHCLFB#55</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D233" t="b">
+        <v>1</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>R5F10PGHCLFB#55</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D234" t="b">
+        <v>1</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>R5F10PGHCLFB#55</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D235" t="b">
+        <v>1</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F10PGHCLFB#55?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>R5F5630ECDLC#U0</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Chip1Stop</t>
+        </is>
+      </c>
+      <c r="D236" t="b">
+        <v>1</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>https://www.chip1stop.com/product/detail?partId=MURA-0093105&amp;utm_term=R5F5630ECDLC#U0&amp;cid=MURA-0093105</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>20</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>R5F5630ECDLC#U0</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D237" t="b">
+        <v>1</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>R5F5630ECDLC#U0</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D238" t="b">
+        <v>1</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>R5F5630ECDLC#U0</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Verical</t>
+        </is>
+      </c>
+      <c r="D239" t="b">
+        <v>1</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>https://www.verical.com/pd/murata-manufacturing-ceramic---multilayer-R5F5630ECDLC#U0?utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>20</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>R5F5630ECDLC#U0</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D240" t="b">
+        <v>1</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F5630ECDLC#U0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>R5F5630ECDLC#U0</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D241" t="b">
+        <v>1</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>R5F104LCALA#U0</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D242" t="b">
+        <v>1</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>R5F104LCALA#U0</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D243" t="b">
+        <v>1</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>R5F104LCALA#U0</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D244" t="b">
+        <v>1</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F104LCALA#U0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>R5F104LCALA#U0</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D245" t="b">
+        <v>1</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>R7F100GML3CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D246" t="b">
+        <v>1</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>R7F100GML3CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D247" t="b">
+        <v>1</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>R7F100GML3CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D248" t="b">
+        <v>1</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R7F100GML3CFB#AA0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>R7F100GML3CFB#AA0</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D249" t="b">
+        <v>1</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>R5F104PFDFA#X0</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D250" t="b">
+        <v>1</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>R5F10BLGCKFB#55</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D251" t="b">
+        <v>1</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>R5F10BLGCKFB#55</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D252" t="b">
+        <v>1</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>R5F10BLGCKFB#55</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D253" t="b">
+        <v>1</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F10BLGCKFB#55?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>R5F10DPFLFB#H2G</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D254" t="b">
+        <v>1</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>R5F10PGELFB#H5</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D255" t="b">
+        <v>1</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>R5F571MGDDFB#10</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D256" t="b">
+        <v>1</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>R5F571MGDDFB#10</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D257" t="b">
+        <v>1</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>R5F571MGDDFB#10</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D258" t="b">
+        <v>1</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F571MGDDFB#10?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>R5F571MGDDFB#10</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D259" t="b">
+        <v>1</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>R5F566TEEGFP#30</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D260" t="b">
+        <v>1</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>270</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>R5F566TEEGFP#30</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D261" t="b">
+        <v>1</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>R5F566TEEGFP#30</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D262" t="b">
+        <v>1</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F566TEEGFP#30?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>R5F566TEEGFP#30</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D263" t="b">
+        <v>1</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>R5F5111JAGFL#1A</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D264" t="b">
+        <v>1</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>R5F5111JAGFL#1A</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D265" t="b">
+        <v>1</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>R5F5111JAGFL#1A</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D266" t="b">
+        <v>1</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F5111JAGFL#1A?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>R5F5111JAGFL#1A</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D267" t="b">
+        <v>1</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Chip1Stop</t>
+        </is>
+      </c>
+      <c r="D268" t="b">
+        <v>1</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>https://www.chip1stop.com/product/detail?partId=MURA-0093105&amp;utm_term=R5F100LLAFA#30&amp;cid=MURA-0093105</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>1422</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D269" t="b">
+        <v>1</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>80</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Verical</t>
+        </is>
+      </c>
+      <c r="D270" t="b">
+        <v>1</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>https://www.verical.com/pd/murata-manufacturing-ceramic---multilayer-R5F100LLAFA#30?utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>1422</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D271" t="b">
+        <v>1</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>element14 Asia-Pacific</t>
+        </is>
+      </c>
+      <c r="D272" t="b">
+        <v>1</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>4</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D273" t="b">
+        <v>1</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F100LLAFA#30?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>R5F100LLAFA#30</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D274" t="b">
+        <v>1</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>0</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>R5F5631YDGFC#V0</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>//</t>
+        </is>
+      </c>
+      <c r="D275" t="b">
+        <v>0</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>R5F51403ADNE#50</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D276" t="b">
+        <v>1</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>R5F51403ADNE#50</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D277" t="b">
+        <v>1</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>R5F51403ADNE#50</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D278" t="b">
+        <v>1</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F51403ADNE#50?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>0</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>R5F51403ADNE#50</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D279" t="b">
+        <v>1</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>0</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>R5F100GEAFB#X0</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Chip1Stop</t>
+        </is>
+      </c>
+      <c r="D280" t="b">
+        <v>1</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>https://www.chip1stop.com/product/detail?partId=MURA-0093105&amp;utm_term=R5F100GEAFB#X0&amp;cid=MURA-0093105</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>10427</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>R5F100GEAFB#X0</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D281" t="b">
+        <v>1</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>0</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>R5F100GEAFB#X0</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Verical</t>
+        </is>
+      </c>
+      <c r="D282" t="b">
+        <v>1</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>https://www.verical.com/pd/murata-manufacturing-ceramic---multilayer-R5F100GEAFB#X0?utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>10427</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>R5F100GEAFB#X0</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D283" t="b">
+        <v>1</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>R5F100GEAFB#X0</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Avnet Asia</t>
+        </is>
+      </c>
+      <c r="D284" t="b">
+        <v>1</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>0</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>R5F100GEAFB#X0</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>element14 Asia-Pacific</t>
+        </is>
+      </c>
+      <c r="D285" t="b">
+        <v>1</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>R5F100GEAFB#X0</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D286" t="b">
+        <v>1</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F100GEAFB#X0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>30008</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>R5F100GEAFB#X0</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D287" t="b">
+        <v>1</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>R5F562T7EDFP#V1</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D288" t="b">
+        <v>1</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>0</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>R5F562T7EDFP#V1</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D289" t="b">
+        <v>1</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>R5F562T7EDFP#V1</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D290" t="b">
+        <v>1</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F562T7EDFP#V1?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>R5F562T7EDFP#V1</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D291" t="b">
+        <v>1</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>0</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>R5F101FJAFP#X0</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Chip1Stop</t>
+        </is>
+      </c>
+      <c r="D292" t="b">
+        <v>1</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>https://www.chip1stop.com/product/detail?partId=MURA-0093105&amp;utm_term=R5F101FJAFP#X0&amp;cid=MURA-0093105</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>10</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>R5F101FJAFP#X0</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D293" t="b">
+        <v>1</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>50</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>R5F101FJAFP#X0</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D294" t="b">
+        <v>1</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>0</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>R5F101FJAFP#X0</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D295" t="b">
+        <v>1</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F101FJAFP#X0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>0</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>R5F101FJAFP#X0</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D296" t="b">
+        <v>1</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>0</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>RL78/G1M</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Tessera Technology Inc</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Chip1Stop</t>
+        </is>
+      </c>
+      <c r="D297" t="b">
+        <v>1</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>https://www.chip1stop.com/product/detail?partId=MURA-0093105&amp;utm_term=RL78/G1M&amp;cid=MURA-0093105</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>38</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>RL78/G1M</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D298" t="b">
+        <v>1</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>3879</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>RL78/G1M</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Avnet Asia</t>
+        </is>
+      </c>
+      <c r="D299" t="b">
+        <v>1</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>RL78/G1M</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Aimtec</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>element14 Asia-Pacific</t>
+        </is>
+      </c>
+      <c r="D300" t="b">
+        <v>1</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>3429</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>RL78/G1M</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>BURNDY</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Heilind Electronics - Asia</t>
+        </is>
+      </c>
+      <c r="D301" t="b">
+        <v>1</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>0</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>RL78/G1M</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Analog Devices Inc</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D302" t="b">
+        <v>1</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/RL78/G1M?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>5211</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>RL78/G1M</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Infineon Technologies AG</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="D303" t="b">
+        <v>1</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>876</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>RL78/G1M</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Analog Devices Inc</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Rochester Electronics China</t>
+        </is>
+      </c>
+      <c r="D304" t="b">
+        <v>1</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>6593</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>RL78/G1M</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Analog Devices Inc</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Richardson RFPD</t>
+        </is>
+      </c>
+      <c r="D305" t="b">
+        <v>1</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>0</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>RL78/G1M</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Aimtec</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Sager</t>
+        </is>
+      </c>
+      <c r="D306" t="b">
+        <v>1</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>RL78/G1M</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D307" t="b">
+        <v>1</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>R5F10BAELSP#G5</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D308" t="b">
+        <v>1</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>0</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>R5F10BAELSP#G5</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D309" t="b">
+        <v>1</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F10BAELSP#G5?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>0</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>R5F104JEGFA#50</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D310" t="b">
+        <v>1</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>0</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>R5F104JEGFA#50</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D311" t="b">
+        <v>1</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>0</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>R5F104JEGFA#50</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D312" t="b">
+        <v>1</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F104JEGFA#50?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>0</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>R5F104JEGFA#50</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D313" t="b">
+        <v>1</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F313" t="n">
+        <v>0</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>R5F566TKGDFB#10</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D314" t="b">
+        <v>1</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F314" t="n">
+        <v>1010</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>R5F566TKGDFB#10</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D315" t="b">
+        <v>1</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>0</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>R5F566TKGDFB#10</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>element14 Asia-Pacific</t>
+        </is>
+      </c>
+      <c r="D316" t="b">
+        <v>1</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>0</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>R5F566TKGDFB#10</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D317" t="b">
+        <v>1</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F566TKGDFB#10?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>62</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>R5F566TKGDFB#10</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D318" t="b">
+        <v>1</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>0</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>R7F100GLN3CFA#HA0</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D319" t="b">
+        <v>1</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F319" t="n">
+        <v>0</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>R7F100GLN3CFA#HA0</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D320" t="b">
+        <v>1</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F320" t="n">
+        <v>0</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>R7F100GLN3CFA#HA0</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D321" t="b">
+        <v>1</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R7F100GLN3CFA#HA0?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F321" t="n">
+        <v>0</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>R7F100GLN3CFA#HA0</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D322" t="b">
+        <v>1</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F322" t="n">
+        <v>0</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>R5F52318AGND#20</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D323" t="b">
+        <v>1</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F323" t="n">
+        <v>0</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>R5F52318AGND#20</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D324" t="b">
+        <v>1</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F324" t="n">
+        <v>0</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>R5F52318AGND#20</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D325" t="b">
+        <v>1</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F52318AGND#20?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F325" t="n">
+        <v>0</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>R5F52318AGND#20</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D326" t="b">
+        <v>1</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>R5F572TFCDFP#30</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D327" t="b">
+        <v>1</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F327" t="n">
+        <v>0</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>R5F572TFCDFP#30</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D328" t="b">
+        <v>1</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F572TFCDFP#30?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F328" t="n">
+        <v>0</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>R5F572TFCDFP#30</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D329" t="b">
+        <v>1</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F329" t="n">
+        <v>0</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>R5F104LKGFA#30</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D330" t="b">
+        <v>1</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F330" t="n">
+        <v>0</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>R5F104LKGFA#30</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D331" t="b">
+        <v>1</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>R5F104LKGFA#30</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D332" t="b">
+        <v>1</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F104LKGFA#30?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F332" t="n">
+        <v>0</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>R5F104LKGFA#30</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D333" t="b">
+        <v>1</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F333" t="n">
+        <v>0</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>R5F1096EJSP#H0G</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D334" t="b">
+        <v>1</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>0</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>R5F1096EJSP#H0G</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D335" t="b">
+        <v>1</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F335" t="n">
+        <v>0</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>R5F1096EJSP#H0G</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Renesas Electronics Corporation</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D336" t="b">
+        <v>1</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/R5F1096EJSP#H0G?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F336" t="n">
+        <v>0</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
